--- a/Project Outputs for ESP8266-Deskop_Power/Manufacturing Data/BOM/Bill of Materials-ESP8266-Deskop_Power.xlsx
+++ b/Project Outputs for ESP8266-Deskop_Power/Manufacturing Data/BOM/Bill of Materials-ESP8266-Deskop_Power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desktop\Documents\Project Files\Altium\Projects\Project - Devlopment\ESP8266-Deskop_Power\Project Outputs for ESP8266-Deskop_Power\Manufacturing Data\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39964E36-FE5D-4C61-AB01-68DD3BBD8154}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C3ECD4-A01A-452F-A27D-E964539B3708}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{3815FEB8-6CBC-48C1-ABF5-01CDEEF776E8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{C8E8F26E-AD33-4657-9E2F-542A7F7D284A}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESP8266-Desko" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
   <si>
     <t>Comment</t>
   </si>
@@ -60,6 +60,30 @@
     <t>Voltage Rating</t>
   </si>
   <si>
+    <t>C1608X7R1A225K080AC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 2.2 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>C1C</t>
+  </si>
+  <si>
+    <t>C0603-IPC_C_No_Silk</t>
+  </si>
+  <si>
+    <t>2.2uF_10V</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
     <t>KGM15AR70J104KM</t>
   </si>
   <si>
@@ -69,84 +93,75 @@
     <t>C1E, C2E</t>
   </si>
   <si>
-    <t>C0603-IPC_C_No_Silk</t>
-  </si>
-  <si>
     <t>100nF_6.3V</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
+    <t>TCTAL1A476M8R</t>
+  </si>
+  <si>
+    <t>Surface Mount Tantalum Capacitor, 47 uF, 10 V, ± 20%, -55 °C, 125 °C, 1206 [3216-12 Metric]</t>
+  </si>
+  <si>
+    <t>C1L</t>
+  </si>
+  <si>
+    <t>CAP POL 1206_3216-MFG</t>
+  </si>
+  <si>
+    <t>47uF_10V</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>CL10A475KP8NNNC</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 4.7 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>C2C</t>
+  </si>
+  <si>
+    <t>4.7uF_10V</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>GRM188R61A226ME15D</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 22 uF, 10 V, ± 20%, X5R, 0603 [1608 Metric]</t>
+  </si>
+  <si>
+    <t>C2L</t>
+  </si>
+  <si>
+    <t>22uF_10V</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
     <t>C0603C104K8RACTU</t>
   </si>
   <si>
     <t>Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric]</t>
   </si>
   <si>
-    <t>C1F, C1P, C2P, C3C, C3L, C5C, C6C</t>
+    <t>C3L</t>
   </si>
   <si>
     <t>100nF_10V</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>10V</t>
-  </si>
-  <si>
-    <t>TCTAL1A476M8R</t>
-  </si>
-  <si>
-    <t>Surface Mount Tantalum Capacitor, 47 uF, 10 V, ± 20%, -55 °C, 125 °C, 1206 [3216-12 Metric]</t>
-  </si>
-  <si>
-    <t>C1L</t>
-  </si>
-  <si>
-    <t>CAP POL 1206_3216-MFG</t>
-  </si>
-  <si>
-    <t>47uF_10V</t>
-  </si>
-  <si>
-    <t>47uF</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>CL10A475KP8NNNC</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 4.7 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric]</t>
-  </si>
-  <si>
-    <t>C2C, C4C</t>
-  </si>
-  <si>
-    <t>4.7uF_10V</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>GRM188R61A226ME15D</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 22 uF, 10 V, ± 20%, X5R, 0603 [1608 Metric]</t>
-  </si>
-  <si>
-    <t>C2L</t>
-  </si>
-  <si>
-    <t>22uF_10V</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
     <t>T491A476M006AT</t>
   </si>
   <si>
@@ -174,21 +189,6 @@
     <t>6.3V</t>
   </si>
   <si>
-    <t>CDSOT23-SRV05-4</t>
-  </si>
-  <si>
-    <t>TVS DIODE 5V 15V SOT23-6</t>
-  </si>
-  <si>
-    <t>D1C, D1F, D2C</t>
-  </si>
-  <si>
-    <t>SOT23-6-IPC_C</t>
-  </si>
-  <si>
-    <t>SRV05-4</t>
-  </si>
-  <si>
     <t>YELLOW</t>
   </si>
   <si>
@@ -207,7 +207,7 @@
     <t>Fuse PPTC SMD 0603</t>
   </si>
   <si>
-    <t>F1P, F1U</t>
+    <t>F1P</t>
   </si>
   <si>
     <t>R0603-IPC_C</t>
@@ -216,15 +216,15 @@
     <t>FUSE_PPTC_0603</t>
   </si>
   <si>
+    <t>500mA</t>
+  </si>
+  <si>
+    <t>3.2 mm</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>500mA, 300mA</t>
-  </si>
-  <si>
-    <t>3.2 mm</t>
-  </si>
-  <si>
     <t>H1H, H2H, H3H, H4H</t>
   </si>
   <si>
@@ -243,64 +243,101 @@
     <t>ESP8266 ESP-12-Large</t>
   </si>
   <si>
+    <t>2.54 Pitch</t>
+  </si>
+  <si>
+    <t>J1C</t>
+  </si>
+  <si>
+    <t>USB_Front_Pannel_2x05_P2.54mm_Horizontal_Right</t>
+  </si>
+  <si>
+    <t>USB_Front_Pannel_2x05_P2.54mm</t>
+  </si>
+  <si>
+    <t>2X05</t>
+  </si>
+  <si>
+    <t>J1F</t>
+  </si>
+  <si>
+    <t>Front_Pannel_2x05_P2.54mm_Horizontal_Right</t>
+  </si>
+  <si>
+    <t>Front_Pannel_2x05_P2.54mm</t>
+  </si>
+  <si>
+    <t>2X04</t>
+  </si>
+  <si>
+    <t>J1I</t>
+  </si>
+  <si>
+    <t>PinHeader_2x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>I2C_2X04_P2.54mm</t>
+  </si>
+  <si>
+    <t>1x06</t>
+  </si>
+  <si>
+    <t>J1U</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical_No_3D</t>
+  </si>
+  <si>
+    <t>UART_1X06_P2.54mm_2</t>
+  </si>
+  <si>
+    <t>J2C</t>
+  </si>
+  <si>
+    <t>USB_Front_Pannel_2x05_P2.54mm_Horizontal_Left</t>
+  </si>
+  <si>
+    <t>J2F</t>
+  </si>
+  <si>
+    <t>Front_Pannel_2x05_P2.54mm_Horizontal_Left</t>
+  </si>
+  <si>
+    <t>1x04</t>
+  </si>
+  <si>
+    <t>J2I</t>
+  </si>
+  <si>
+    <t>PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>PinHeader 1x04</t>
+  </si>
+  <si>
     <t>217175-0001</t>
   </si>
   <si>
     <t>Connector USB Type C Female 6Positions 0.5mm Right Angle SMT Embossed T/R - Tape and Reel</t>
   </si>
   <si>
-    <t>J1C</t>
+    <t>J3C</t>
   </si>
   <si>
     <t>USB-Type-C-6-Pin-SMT</t>
   </si>
   <si>
-    <t>2X05</t>
-  </si>
-  <si>
-    <t>J1F, J2F</t>
-  </si>
-  <si>
-    <t>Front_Pannel_2x05_P2.54mm_Horizontal_Right</t>
-  </si>
-  <si>
-    <t>Front_Pannel_2x05_P2.54mm</t>
-  </si>
-  <si>
-    <t>2X04</t>
-  </si>
-  <si>
-    <t>J1I</t>
-  </si>
-  <si>
-    <t>PinHeader_2x04_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>I2C_2X04_P2.54mm</t>
-  </si>
-  <si>
-    <t>1x06</t>
-  </si>
-  <si>
-    <t>J1U</t>
-  </si>
-  <si>
-    <t>PinHeader_1x06_P2.54mm_Vertical_No_3D</t>
-  </si>
-  <si>
-    <t>UART_1X06_P2.54mm_2</t>
-  </si>
-  <si>
-    <t>2.54 Pitch</t>
-  </si>
-  <si>
-    <t>J2C, J3C</t>
-  </si>
-  <si>
-    <t>USB_Front_Pannel_2x05_P2.54mm_Horizontal_Right</t>
-  </si>
-  <si>
-    <t>USB_Front_Pannel_2x05_P2.54mm</t>
+    <t>WS2812B_3535</t>
+  </si>
+  <si>
+    <t>4 PIN SMART LED_x000D_
+WS2812 BODY 3.5MM X 3.5MM</t>
+  </si>
+  <si>
+    <t>LED1K</t>
+  </si>
+  <si>
+    <t>WS2812B-Mini_3535</t>
   </si>
   <si>
     <t>BSS138NH6327</t>
@@ -309,7 +346,7 @@
     <t>Single N-Channel 60 V 3.5 Ohm 1 nC SIPMOS® Small Signal Mosfet - SOT-23</t>
   </si>
   <si>
-    <t>Q1M, Q2M, Q3M</t>
+    <t>Q1M, Q2M, Q3M, Q4M</t>
   </si>
   <si>
     <t>SOT-23-3-IPC_C</t>
@@ -354,7 +391,7 @@
     <t>SMD Chip Resistor, 10 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
-    <t>R1E, R1L, R2E, R3E, R4E, R4M, R5E, R5M, R6M, R7M</t>
+    <t>R1E, R1L, R2E, R3E, R4E, R4M, R5E, R5M, R6M, R7M, R9M</t>
   </si>
   <si>
     <t>10K</t>
@@ -402,7 +439,7 @@
     <t>SMD Chip Resistor, 100 Ohm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
-    <t>R1M, R2M, R3M</t>
+    <t>R1M, R2M, R3K, R3M, R8M</t>
   </si>
   <si>
     <t>100R</t>
@@ -414,7 +451,7 @@
     <t>SMD Chip Resistor, 100 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
-    <t>R1P, R2P</t>
+    <t>R1P</t>
   </si>
   <si>
     <t>100K</t>
@@ -423,21 +460,6 @@
     <t>100kR</t>
   </si>
   <si>
-    <t>RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>Zero Ohm Resistor, Jumper, 0603 [1608 Metric], Thick Film, 100 mW, 1 A, Surface Mount</t>
-  </si>
-  <si>
-    <t>R2K, R3C</t>
-  </si>
-  <si>
-    <t>0R</t>
-  </si>
-  <si>
-    <t>0mR</t>
-  </si>
-  <si>
     <t>MCR03EZPFX1691</t>
   </si>
   <si>
@@ -453,6 +475,21 @@
     <t>1.69kR</t>
   </si>
   <si>
+    <t>AC0603FR-074K7L</t>
+  </si>
+  <si>
+    <t>SMD Chip Resistor, 4.7 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
+  </si>
+  <si>
+    <t>R3I</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>4.7kR</t>
+  </si>
+  <si>
     <t>ERJ-3EKF3302V</t>
   </si>
   <si>
@@ -498,21 +535,6 @@
     <t>2.49kR</t>
   </si>
   <si>
-    <t>UART_TX_RX</t>
-  </si>
-  <si>
-    <t>UART RX/TX Pokayoke</t>
-  </si>
-  <si>
-    <t>RXTX1U</t>
-  </si>
-  <si>
-    <t>UART_TX_RX_0603</t>
-  </si>
-  <si>
-    <t>470R</t>
-  </si>
-  <si>
     <t>EVP-AWED4A</t>
   </si>
   <si>
@@ -543,7 +565,7 @@
     <t>MM3Z12VST1G Zener Diode, 12V 2% 200 mW SMT 2-Pin SOD-323 | ON Semiconductor MM3Z12VST1G</t>
   </si>
   <si>
-    <t>ZD1P, ZD2P</t>
+    <t>ZD1P</t>
   </si>
   <si>
     <t>SOD-323</t>
@@ -606,10 +628,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -925,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712F947-BBDA-4644-BCBC-CACA702A8ECF}">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B152BF2E-70C5-4B2C-8B3C-B1C255A9A117}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,35 +962,35 @@
     <col min="7" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -986,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
@@ -994,196 +1019,196 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1196,20 +1221,26 @@
         <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1252,23 +1283,21 @@
         <v>61</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
@@ -1284,7 +1313,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1318,13 +1347,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>74</v>
@@ -1342,7 +1371,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
@@ -1354,7 +1383,7 @@
         <v>78</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1366,7 +1395,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>80</v>
@@ -1390,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>84</v>
@@ -1411,22 +1440,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1435,507 +1464,577 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
